--- a/xlsx/nor_oda_gni_prop_tenyear.xlsx
+++ b/xlsx/nor_oda_gni_prop_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Norsk bistand som andel av bruttonasjonalinntekt (BNI), 2014-2023</t>
+          <t>Arkfane Figurdata viser data for Norsk bistand som andel av bruttonasjonalinntekt (BNI), 2015-2024</t>
         </is>
       </c>
     </row>
@@ -414,10 +414,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -435,10 +435,10 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -456,10 +456,10 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4">
-        <v>1.12</v>
+        <v>0.992</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -477,10 +477,10 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>0.992</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6">
-        <v>0.9409999999999999</v>
+        <v>1.02610120098836</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -519,10 +519,10 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7">
-        <v>1.02610120098836</v>
+        <v>1.10977691843595</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -540,10 +540,10 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>1.10977691843595</v>
+        <v>0.9262373889376735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -561,10 +561,10 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9">
-        <v>0.9262373889376735</v>
+        <v>0.863457422934203</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10">
-        <v>0.863457422934203</v>
+        <v>1.091926548963298</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -603,10 +603,10 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B11">
-        <v>1.091926548963298</v>
+        <v>1.02342948130584</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>

--- a/xlsx/nor_oda_gni_prop_tenyear.xlsx
+++ b/xlsx/nor_oda_gni_prop_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Norsk bistand som andel av bruttonasjonalinntekt (BNI), 2015-2024</t>
+          <t>Arkfane Figurdata inneholder data om norsk bistand som andel av bruttonasjonalinntekt (BNI). 2015-2024</t>
         </is>
       </c>
     </row>
